--- a/formato_aa.xlsx
+++ b/formato_aa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="5385"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="19590" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Especialidad </t>
   </si>
   <si>
-    <t>SUPERVISOR UASIPA</t>
+    <t>Supervisor UASIPA</t>
   </si>
 </sst>
 </file>
@@ -138,19 +138,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -164,6 +151,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -201,10 +201,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
